--- a/Capítulo 7/7.1/7.1.xlsx
+++ b/Capítulo 7/7.1/7.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unahhn-my.sharepoint.com/personal/jackyr_discua_unah_hn/Documents/Algoritmos y estructuras de datos/Tareas/Tareas_AED/Capítulo 7/7.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB02PC14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="7.1" sheetId="1" r:id="rId1"/>
@@ -71,19 +71,19 @@
     <t>(2,3,4)</t>
   </si>
   <si>
-    <t>(2,3,4,1)</t>
-  </si>
-  <si>
-    <t>(2,5,3,4,1)</t>
-  </si>
-  <si>
-    <t>(2,6,5,3,4,1)</t>
-  </si>
-  <si>
-    <t>(2,6,5,7,3,4,1)</t>
-  </si>
-  <si>
-    <t>(8,2,6,5,7,3,4,1)</t>
+    <t>(2,3,1,4)</t>
+  </si>
+  <si>
+    <t>(2,5,3,1,4)</t>
+  </si>
+  <si>
+    <t>(2,6,5,3,1,4)</t>
+  </si>
+  <si>
+    <t>(2,6,5,7,3,1,4)</t>
+  </si>
+  <si>
+    <t>(8,2,6,5,7,3,1,4)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +666,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E38D882235744439410FC3FDACB4804" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8e7818fce1bea4e1e620ed7f9bbcce84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b1b6beea-1a75-4598-932f-ecf2af62952a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6496b3b37a20a4ca0956d6cbabb7ebd0" ns3:_="">
     <xsd:import namespace="b1b6beea-1a75-4598-932f-ecf2af62952a"/>
@@ -835,22 +850,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD1A447-D478-4F67-9B10-EBDE7F2026A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b1b6beea-1a75-4598-932f-ecf2af62952a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB9DF89-7724-4C89-A659-6E6CB243EA3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD92E73-942A-4A51-988F-01AA75F79CA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -866,28 +890,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BB9DF89-7724-4C89-A659-6E6CB243EA3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD1A447-D478-4F67-9B10-EBDE7F2026A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b1b6beea-1a75-4598-932f-ecf2af62952a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>